--- a/biology/Médecine/Pierre_Pelletan/Pierre_Pelletan.xlsx
+++ b/biology/Médecine/Pierre_Pelletan/Pierre_Pelletan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Pelletan, né à Paris le 6 janvier 1782 et mort le 11 août 1845 (à 63 ans) à Bruxelles, est un médecin français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du chirurgien Philippe-Jean Pelletan, il entra à l’âge de quatorze ans à l’École polytechnique ; quand il en sortit, le célèbre physicien Charles le choisit pour préparateur. Lui-même ouvrit, quelque temps après, un cours de chimie générale. Comme il possédait déjà quelques éléments de chirurgie et d’anatomie, son père le fit recevoir chirurgien militaire en 1799 ; en sorte qu’il put faire la campagne de Zurich. En 1803, nommé premier interne des hôpitaux, il passa dans le service chirurgical de son père.
 Vers 1805, il se rendit à Rouen, où il fonda une fabrique de soude artificielle. Descroizilles, l’inventeur de l’alambic d’essai et de l’alcalimètre, fut son associé et, quelque temps, son mentor. En 1813, Pelletan quitta Rouen, où il avait épousé la veuve du baron de Kinkelin, et vint se faire recevoir docteur à Paris. L’année suivante il reçut la croix d’Honneur pour les soins qu’il avait prodigués aux soldats atteints de typhus et devint médecin du roi par quartier.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On a du professeur Pelletan :
 Traité élémentaire de physique générale et médicale, 1 vol. in-8°, 1824, 1831 ;
@@ -579,7 +595,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ferdinand Hoefer, Nouvelle Biographie générale, t. 39, Paris, Firmin-Didot, 1862, p. 498.</t>
         </is>
